--- a/sample/excel/Simple_Template_With_Vertical.xlsx
+++ b/sample/excel/Simple_Template_With_Vertical.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khair\Documents\GitHub\repositories\rendr\sample\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F4736A-3AEA-4A65-BCBC-452A4A6C6B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152714A0-3C85-494D-9907-7FBD51CEDC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="1065" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holdings" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>!!&gt; contractCode</t>
   </si>
   <si>
-    <t>!!&gt; ticker</t>
-  </si>
-  <si>
     <t>!!&gt; coupon</t>
   </si>
   <si>
@@ -179,27 +176,15 @@
     <t>!!&gt; originalFace</t>
   </si>
   <si>
-    <t>!!&gt; price --</t>
-  </si>
-  <si>
     <t>!!v positionDate</t>
   </si>
   <si>
     <t>!!v portfolio</t>
   </si>
   <si>
-    <t>!!v instrumentType ++</t>
-  </si>
-  <si>
     <t>!!v ISIN</t>
   </si>
   <si>
-    <t>!!&gt; instrumentType --</t>
-  </si>
-  <si>
-    <t>!!v ticker</t>
-  </si>
-  <si>
     <t>!!v coupon</t>
   </si>
   <si>
@@ -219,6 +204,21 @@
   </si>
   <si>
     <t>!!v contractCode</t>
+  </si>
+  <si>
+    <t>!!&gt; price</t>
+  </si>
+  <si>
+    <t>!!v ticker ++</t>
+  </si>
+  <si>
+    <t>!!v instrumentType</t>
+  </si>
+  <si>
+    <t>!!&gt; ticker --</t>
+  </si>
+  <si>
+    <t>!!&gt; instrumentType</t>
   </si>
 </sst>
 </file>
@@ -717,18 +717,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="4" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="5" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="6" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="3" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="3" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="3" borderId="3" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="4" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="5" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="6" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -746,21 +761,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="3" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="3" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="2" fillId="3" borderId="3" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1145,8 +1145,8 @@
   </sheetPr>
   <dimension ref="A1:X155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -1174,7 +1174,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="58" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="53" t="s">
@@ -1199,7 +1199,7 @@
       <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:24" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -1224,11 +1224,11 @@
       <c r="S2" s="57"/>
     </row>
     <row r="3" spans="1:24" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="59" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="53"/>
@@ -1249,7 +1249,7 @@
       <c r="S3" s="57"/>
     </row>
     <row r="4" spans="1:24" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -1274,11 +1274,11 @@
       <c r="S4" s="57"/>
     </row>
     <row r="5" spans="1:24" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="59" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="57"/>
@@ -1299,7 +1299,7 @@
       <c r="S5" s="57"/>
     </row>
     <row r="6" spans="1:24" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="59" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="54" t="s">
@@ -1324,11 +1324,11 @@
       <c r="S6" s="57"/>
     </row>
     <row r="7" spans="1:24" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="60" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="53"/>
@@ -1349,11 +1349,11 @@
       <c r="S7" s="57"/>
     </row>
     <row r="8" spans="1:24" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="58" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="57"/>
       <c r="D8" s="53"/>
@@ -1374,11 +1374,11 @@
       <c r="S8" s="57"/>
     </row>
     <row r="9" spans="1:24" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="59" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="53"/>
@@ -1399,11 +1399,11 @@
       <c r="S9" s="57"/>
     </row>
     <row r="10" spans="1:24" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="61" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="53"/>
@@ -1425,11 +1425,11 @@
       <c r="X10" s="52"/>
     </row>
     <row r="11" spans="1:24" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="53"/>
@@ -1450,11 +1450,11 @@
       <c r="S11" s="57"/>
     </row>
     <row r="12" spans="1:24" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>51</v>
+      <c r="B12" s="53" t="s">
+        <v>60</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="53"/>
@@ -1475,11 +1475,11 @@
       <c r="S12" s="57"/>
     </row>
     <row r="13" spans="1:24" s="24" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="59" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="53"/>
@@ -1584,40 +1584,40 @@
     </row>
     <row r="18" spans="1:12" s="24" customFormat="1" ht="12.75" customHeight="1">
       <c r="A18" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="E18" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="G18" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="H18" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="I18" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="K18" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="L18" s="49" t="s">
         <v>59</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="49" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="24" customFormat="1" ht="12" customHeight="1">
@@ -3642,189 +3642,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
@@ -3835,6 +3828,13 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
